--- a/upload_files/BK_746_2__text.xlsx
+++ b/upload_files/BK_746_2__text.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="147">
   <si>
     <t>CV ID</t>
   </si>
@@ -55,619 +55,331 @@
     <t>text.txt</t>
   </si>
   <si>
-    <t>26.80</t>
-  </si>
-  <si>
-    <t>image processing : 1</t>
-  </si>
-  <si>
-    <t>communications : 1</t>
-  </si>
-  <si>
-    <t>electronics : 1</t>
-  </si>
-  <si>
-    <t>dba : 75</t>
-  </si>
-  <si>
-    <t>consultant : 8</t>
-  </si>
-  <si>
-    <t>contract : 17</t>
-  </si>
-  <si>
-    <t>energy : 2</t>
-  </si>
-  <si>
-    <t>oracle dba : 34</t>
-  </si>
-  <si>
-    <t>financial services : 2</t>
-  </si>
-  <si>
-    <t>international : 2</t>
-  </si>
-  <si>
-    <t>unix : 7</t>
-  </si>
-  <si>
-    <t>administrator : 4</t>
-  </si>
-  <si>
-    <t>analyst : 3</t>
-  </si>
-  <si>
-    <t>systems : 12</t>
-  </si>
-  <si>
-    <t>telecommunications : 3</t>
-  </si>
-  <si>
-    <t>manager : 12</t>
+    <t>18.18</t>
+  </si>
+  <si>
+    <t>oracle : 64</t>
+  </si>
+  <si>
+    <t>tuning : 13</t>
+  </si>
+  <si>
+    <t>management : 22</t>
+  </si>
+  <si>
+    <t>oem : 6</t>
+  </si>
+  <si>
+    <t>grid : 6</t>
+  </si>
+  <si>
+    <t>rac : 14</t>
+  </si>
+  <si>
+    <t>stored procedures : 1</t>
+  </si>
+  <si>
+    <t>production : 8</t>
+  </si>
+  <si>
+    <t>dba : 24</t>
+  </si>
+  <si>
+    <t>oracle databases : 2</t>
+  </si>
+  <si>
+    <t>databases : 9</t>
+  </si>
+  <si>
+    <t>pci : 1</t>
+  </si>
+  <si>
+    <t>security : 3</t>
+  </si>
+  <si>
+    <t>oracle dba : 14</t>
+  </si>
+  <si>
+    <t>security clearance : 5</t>
+  </si>
+  <si>
+    <t>production support : 3</t>
+  </si>
+  <si>
+    <t>asm : 6</t>
+  </si>
+  <si>
+    <t>solaris : 8</t>
+  </si>
+  <si>
+    <t>oracle fusion : 1</t>
+  </si>
+  <si>
+    <t>fusion : 1</t>
+  </si>
+  <si>
+    <t>rman : 11</t>
+  </si>
+  <si>
+    <t>backup : 3</t>
+  </si>
+  <si>
+    <t>scheduling : 1</t>
+  </si>
+  <si>
+    <t>warehouse : 1</t>
+  </si>
+  <si>
+    <t>remedy : 2</t>
+  </si>
+  <si>
+    <t>incident management : 1</t>
+  </si>
+  <si>
+    <t>oracle database : 6</t>
+  </si>
+  <si>
+    <t>database : 15</t>
+  </si>
+  <si>
+    <t>red hat : 1</t>
+  </si>
+  <si>
+    <t>linux : 4</t>
+  </si>
+  <si>
+    <t>aix : 3</t>
+  </si>
+  <si>
+    <t>ibm : 1</t>
+  </si>
+  <si>
+    <t>installation : 4</t>
+  </si>
+  <si>
+    <t>servers : 18</t>
+  </si>
+  <si>
+    <t>configuration : 8</t>
+  </si>
+  <si>
+    <t>migration : 5</t>
+  </si>
+  <si>
+    <t>sql-server : 1</t>
+  </si>
+  <si>
+    <t>siebel : 4</t>
+  </si>
+  <si>
+    <t>informatica : 2</t>
+  </si>
+  <si>
+    <t>crm : 1</t>
+  </si>
+  <si>
+    <t>toad : 2</t>
+  </si>
+  <si>
+    <t>plc : 1</t>
+  </si>
+  <si>
+    <t>high availability : 1</t>
+  </si>
+  <si>
+    <t>unix shell : 1</t>
+  </si>
+  <si>
+    <t>shell scripting : 1</t>
+  </si>
+  <si>
+    <t>scripting : 4</t>
+  </si>
+  <si>
+    <t>sql : 5</t>
+  </si>
+  <si>
+    <t>mis : 1</t>
+  </si>
+  <si>
+    <t>etl : 1</t>
+  </si>
+  <si>
+    <t>performance tuning : 1</t>
+  </si>
+  <si>
+    <t>oracle rac : 2</t>
+  </si>
+  <si>
+    <t>windows servers : 1</t>
+  </si>
+  <si>
+    <t>similar : 1</t>
+  </si>
+  <si>
+    <t>pricing : 1</t>
+  </si>
+  <si>
+    <t>forecasting : 1</t>
+  </si>
+  <si>
+    <t>capital market : 1</t>
+  </si>
+  <si>
+    <t>market research : 1</t>
+  </si>
+  <si>
+    <t>research : 1</t>
+  </si>
+  <si>
+    <t>global : 2</t>
+  </si>
+  <si>
+    <t>trading : 1</t>
+  </si>
+  <si>
+    <t>redhat linux : 2</t>
+  </si>
+  <si>
+    <t>patching : 1</t>
+  </si>
+  <si>
+    <t>sql tuning : 1</t>
+  </si>
+  <si>
+    <t>analysis : 7</t>
+  </si>
+  <si>
+    <t>queries : 1</t>
+  </si>
+  <si>
+    <t>cerner : 1</t>
+  </si>
+  <si>
+    <t>data warehousing : 1</t>
+  </si>
+  <si>
+    <t>systems : 7</t>
+  </si>
+  <si>
+    <t>disaster recovery : 2</t>
+  </si>
+  <si>
+    <t>recovery : 3</t>
+  </si>
+  <si>
+    <t>monitoring : 3</t>
+  </si>
+  <si>
+    <t>unix : 4</t>
+  </si>
+  <si>
+    <t>system administrator : 3</t>
+  </si>
+  <si>
+    <t>administrator : 2</t>
+  </si>
+  <si>
+    <t>credit risk : 1</t>
+  </si>
+  <si>
+    <t>general ledger : 2</t>
+  </si>
+  <si>
+    <t>peoplesoft : 1</t>
+  </si>
+  <si>
+    <t>sybase : 2</t>
+  </si>
+  <si>
+    <t>tools : 2</t>
+  </si>
+  <si>
+    <t>netbackup : 1</t>
+  </si>
+  <si>
+    <t>testing : 3</t>
+  </si>
+  <si>
+    <t>system administration : 4</t>
+  </si>
+  <si>
+    <t>administration : 3</t>
+  </si>
+  <si>
+    <t>veritas : 2</t>
+  </si>
+  <si>
+    <t>emc : 1</t>
+  </si>
+  <si>
+    <t>front end : 1</t>
+  </si>
+  <si>
+    <t>back end : 1</t>
+  </si>
+  <si>
+    <t>real-time : 1</t>
+  </si>
+  <si>
+    <t>business objects : 2</t>
+  </si>
+  <si>
+    <t>business continuity : 1</t>
+  </si>
+  <si>
+    <t>operations : 1</t>
+  </si>
+  <si>
+    <t>quality assurance : 1</t>
+  </si>
+  <si>
+    <t>unix scripting : 1</t>
+  </si>
+  <si>
+    <t>network management : 7</t>
+  </si>
+  <si>
+    <t>cisco : 1</t>
+  </si>
+  <si>
+    <t>network security : 1</t>
+  </si>
+  <si>
+    <t>cluster : 1</t>
   </si>
   <si>
     <t>network : 5</t>
   </si>
   <si>
-    <t>acquisition : 1</t>
-  </si>
-  <si>
-    <t>admin : 1</t>
-  </si>
-  <si>
-    <t>oracle : 142</t>
-  </si>
-  <si>
-    <t>oracle applications : 2</t>
-  </si>
-  <si>
-    <t>middleware : 2</t>
-  </si>
-  <si>
-    <t>oem : 17</t>
-  </si>
-  <si>
-    <t>monitor : 1</t>
-  </si>
-  <si>
-    <t>oracle databases : 7</t>
-  </si>
-  <si>
-    <t>databases : 29</t>
-  </si>
-  <si>
-    <t>patching : 10</t>
-  </si>
-  <si>
-    <t>tuning : 27</t>
-  </si>
-  <si>
-    <t>monitoring : 13</t>
-  </si>
-  <si>
-    <t>rman : 20</t>
-  </si>
-  <si>
-    <t>testing : 10</t>
-  </si>
-  <si>
-    <t>redhat linux : 14</t>
-  </si>
-  <si>
-    <t>linux : 15</t>
-  </si>
-  <si>
-    <t>vmware : 7</t>
-  </si>
-  <si>
-    <t>framework : 1</t>
-  </si>
-  <si>
-    <t>administration : 6</t>
-  </si>
-  <si>
-    <t>project : 13</t>
-  </si>
-  <si>
-    <t>migration : 14</t>
-  </si>
-  <si>
-    <t>tools : 3</t>
-  </si>
-  <si>
-    <t>database : 30</t>
-  </si>
-  <si>
-    <t>backup : 8</t>
-  </si>
-  <si>
-    <t>recovery : 5</t>
-  </si>
-  <si>
-    <t>production : 15</t>
-  </si>
-  <si>
-    <t>development : 20</t>
-  </si>
-  <si>
-    <t>plc : 3</t>
-  </si>
-  <si>
-    <t>production support : 4</t>
-  </si>
-  <si>
-    <t>ibm : 5</t>
-  </si>
-  <si>
-    <t>aix : 7</t>
-  </si>
-  <si>
-    <t>servers : 42</t>
-  </si>
-  <si>
-    <t>azure : 1</t>
-  </si>
-  <si>
-    <t>oracle 12c : 9</t>
-  </si>
-  <si>
-    <t>rac : 29</t>
-  </si>
-  <si>
-    <t>node : 1</t>
-  </si>
-  <si>
-    <t>security : 6</t>
-  </si>
-  <si>
-    <t>installation : 9</t>
-  </si>
-  <si>
-    <t>soa : 2</t>
-  </si>
-  <si>
-    <t>performance monitoring : 2</t>
-  </si>
-  <si>
-    <t>windows : 6</t>
-  </si>
-  <si>
-    <t>database management : 1</t>
-  </si>
-  <si>
-    <t>management : 26</t>
-  </si>
-  <si>
-    <t>sales : 2</t>
-  </si>
-  <si>
-    <t>oracle rac : 6</t>
-  </si>
-  <si>
-    <t>symantec : 1</t>
-  </si>
-  <si>
-    <t>automated : 1</t>
-  </si>
-  <si>
-    <t>configuration : 15</t>
-  </si>
-  <si>
-    <t>system administrator : 5</t>
-  </si>
-  <si>
-    <t>sqlserver : 4</t>
-  </si>
-  <si>
-    <t>training : 5</t>
-  </si>
-  <si>
-    <t>sql : 13</t>
-  </si>
-  <si>
-    <t>rackspace : 1</t>
-  </si>
-  <si>
-    <t>aws : 4</t>
-  </si>
-  <si>
-    <t>oracle database : 7</t>
-  </si>
-  <si>
-    <t>warehouse : 2</t>
-  </si>
-  <si>
-    <t>aws cloud : 1</t>
-  </si>
-  <si>
-    <t>cloud computing : 1</t>
-  </si>
-  <si>
-    <t>informatica : 4</t>
-  </si>
-  <si>
-    <t>etl : 3</t>
-  </si>
-  <si>
-    <t>process : 1</t>
-  </si>
-  <si>
-    <t>grid : 9</t>
-  </si>
-  <si>
-    <t>toad : 5</t>
-  </si>
-  <si>
-    <t>sql tuning : 3</t>
-  </si>
-  <si>
-    <t>windows servers : 4</t>
-  </si>
-  <si>
-    <t>red hat : 2</t>
-  </si>
-  <si>
-    <t>rest : 1</t>
-  </si>
-  <si>
-    <t>unix scripting : 5</t>
-  </si>
-  <si>
-    <t>scripting : 6</t>
-  </si>
-  <si>
-    <t>powershell : 1</t>
-  </si>
-  <si>
-    <t>elastic search : 2</t>
-  </si>
-  <si>
-    <t>git : 2</t>
-  </si>
-  <si>
-    <t>jira : 2</t>
-  </si>
-  <si>
-    <t>confluence : 2</t>
-  </si>
-  <si>
-    <t>logstash : 2</t>
-  </si>
-  <si>
-    <t>global : 3</t>
-  </si>
-  <si>
-    <t>ovm : 2</t>
-  </si>
-  <si>
-    <t>ux : 1</t>
-  </si>
-  <si>
-    <t>oracle sql : 2</t>
-  </si>
-  <si>
-    <t>sql server : 1</t>
-  </si>
-  <si>
-    <t>high availability : 4</t>
-  </si>
-  <si>
-    <t>data quality : 2</t>
-  </si>
-  <si>
-    <t>audit : 3</t>
-  </si>
-  <si>
-    <t>regulations : 1</t>
-  </si>
-  <si>
-    <t>data architect : 1</t>
-  </si>
-  <si>
-    <t>architect : 1</t>
-  </si>
-  <si>
-    <t>netbackup : 3</t>
-  </si>
-  <si>
-    <t>analysis : 11</t>
-  </si>
-  <si>
-    <t>sql dba : 2</t>
-  </si>
-  <si>
-    <t>tv : 1</t>
-  </si>
-  <si>
-    <t>solaris : 10</t>
-  </si>
-  <si>
-    <t>cloud : 1</t>
-  </si>
-  <si>
-    <t>weblogic : 2</t>
-  </si>
-  <si>
-    <t>apex : 2</t>
-  </si>
-  <si>
-    <t>performance tuning : 3</t>
-  </si>
-  <si>
-    <t>data migration : 1</t>
-  </si>
-  <si>
-    <t>tde : 1</t>
-  </si>
-  <si>
-    <t>data encryption : 1</t>
-  </si>
-  <si>
-    <t>encryption : 1</t>
-  </si>
-  <si>
-    <t>perl : 2</t>
-  </si>
-  <si>
-    <t>shell : 2</t>
-  </si>
-  <si>
-    <t>virtualization : 3</t>
-  </si>
-  <si>
-    <t>netapp : 1</t>
-  </si>
-  <si>
-    <t>asm : 9</t>
-  </si>
-  <si>
-    <t>stored procedures : 1</t>
-  </si>
-  <si>
-    <t>tables : 1</t>
-  </si>
-  <si>
-    <t>pci : 1</t>
-  </si>
-  <si>
-    <t>security clearance : 5</t>
-  </si>
-  <si>
-    <t>oracle fusion : 1</t>
-  </si>
-  <si>
-    <t>fusion : 1</t>
-  </si>
-  <si>
-    <t>scheduling : 1</t>
-  </si>
-  <si>
-    <t>configuration management : 1</t>
-  </si>
-  <si>
-    <t>remedy : 2</t>
-  </si>
-  <si>
-    <t>incident management : 1</t>
-  </si>
-  <si>
-    <t>sla : 2</t>
-  </si>
-  <si>
-    <t>install : 1</t>
-  </si>
-  <si>
-    <t>p : 1</t>
-  </si>
-  <si>
-    <t>hardware : 1</t>
-  </si>
-  <si>
-    <t>engineering : 1</t>
-  </si>
-  <si>
-    <t>ms sql : 1</t>
-  </si>
-  <si>
-    <t>bi : 2</t>
-  </si>
-  <si>
-    <t>dw : 2</t>
-  </si>
-  <si>
-    <t>siebel : 4</t>
-  </si>
-  <si>
-    <t>crm : 1</t>
-  </si>
-  <si>
-    <t>documentation : 2</t>
-  </si>
-  <si>
-    <t>unix shell : 1</t>
-  </si>
-  <si>
-    <t>shell scripting : 1</t>
-  </si>
-  <si>
-    <t>mis : 1</t>
-  </si>
-  <si>
-    <t>data capture : 2</t>
-  </si>
-  <si>
-    <t>similar : 1</t>
-  </si>
-  <si>
-    <t>pricing : 1</t>
-  </si>
-  <si>
-    <t>forecasting : 1</t>
-  </si>
-  <si>
-    <t>capital market : 1</t>
-  </si>
-  <si>
-    <t>market research : 1</t>
-  </si>
-  <si>
-    <t>research : 1</t>
-  </si>
-  <si>
-    <t>trading : 1</t>
-  </si>
-  <si>
-    <t>operations : 2</t>
-  </si>
-  <si>
-    <t>database tuning : 2</t>
-  </si>
-  <si>
-    <t>trouble shooting : 1</t>
-  </si>
-  <si>
-    <t>statistics : 1</t>
-  </si>
-  <si>
-    <t>queries : 1</t>
-  </si>
-  <si>
-    <t>reports : 1</t>
-  </si>
-  <si>
-    <t>cerner : 1</t>
-  </si>
-  <si>
-    <t>emc : 3</t>
-  </si>
-  <si>
-    <t>data warehousing : 1</t>
-  </si>
-  <si>
-    <t>disaster recovery : 3</t>
-  </si>
-  <si>
-    <t>reporting : 2</t>
-  </si>
-  <si>
-    <t>veritas : 4</t>
-  </si>
-  <si>
-    <t>windows server : 1</t>
-  </si>
-  <si>
-    <t>credit risk : 1</t>
-  </si>
-  <si>
-    <t>risk assessment : 1</t>
-  </si>
-  <si>
-    <t>general ledger : 2</t>
-  </si>
-  <si>
-    <t>peoplesoft : 1</t>
-  </si>
-  <si>
-    <t>sybase : 2</t>
-  </si>
-  <si>
-    <t>software : 9</t>
-  </si>
-  <si>
-    <t>enterprise manager : 2</t>
-  </si>
-  <si>
-    <t>pl : 2</t>
-  </si>
-  <si>
-    <t>system administration : 4</t>
-  </si>
-  <si>
-    <t>apache : 2</t>
-  </si>
-  <si>
-    <t>business objects : 2</t>
-  </si>
-  <si>
-    <t>business continuity : 1</t>
-  </si>
-  <si>
-    <t>cluster : 6</t>
-  </si>
-  <si>
-    <t>quality assurance : 1</t>
-  </si>
-  <si>
-    <t>os : 1</t>
-  </si>
-  <si>
-    <t>tivoli : 2</t>
-  </si>
-  <si>
-    <t>network management : 8</t>
-  </si>
-  <si>
-    <t>tcp : 3</t>
-  </si>
-  <si>
-    <t>ip : 3</t>
-  </si>
-  <si>
-    <t>cisco routers : 2</t>
-  </si>
-  <si>
-    <t>routers : 2</t>
-  </si>
-  <si>
-    <t>vms : 5</t>
-  </si>
-  <si>
-    <t>network security : 1</t>
-  </si>
-  <si>
-    <t>security policies : 1</t>
-  </si>
-  <si>
-    <t>policies : 1</t>
-  </si>
-  <si>
-    <t>unix administration : 1</t>
-  </si>
-  <si>
-    <t>c : 2</t>
-  </si>
-  <si>
-    <t>communication : 1</t>
-  </si>
-  <si>
-    <t>system analysis : 2</t>
-  </si>
-  <si>
-    <t>integration : 2</t>
+    <t>analyst : 2</t>
   </si>
   <si>
     <t>customer support : 2</t>
   </si>
   <si>
-    <t>gateways : 1</t>
+    <t>manager : 4</t>
+  </si>
+  <si>
+    <t>routers : 1</t>
   </si>
   <si>
     <t>osi : 2</t>
   </si>
   <si>
+    <t>consultant : 2</t>
+  </si>
+  <si>
     <t>capacity planning : 2</t>
   </si>
   <si>
     <t>planning : 1</t>
   </si>
   <si>
-    <t>protocols : 1</t>
-  </si>
-  <si>
-    <t>software development : 2</t>
-  </si>
-  <si>
-    <t>automation : 2</t>
+    <t>software development : 1</t>
+  </si>
+  <si>
+    <t>automation : 1</t>
   </si>
   <si>
     <t>systems analyst : 1</t>
@@ -694,37 +406,49 @@
     <t>embedded software : 2</t>
   </si>
   <si>
-    <t>red hat linux : 2</t>
-  </si>
-  <si>
-    <t>it : 2</t>
+    <t>sla : 1</t>
+  </si>
+  <si>
+    <t>red hat linux : 1</t>
+  </si>
+  <si>
+    <t>bi : 1</t>
+  </si>
+  <si>
+    <t>dw : 1</t>
+  </si>
+  <si>
+    <t>documentation : 1</t>
   </si>
   <si>
     <t>unix shell scripting : 1</t>
   </si>
   <si>
+    <t>data capture : 1</t>
+  </si>
+  <si>
+    <t>database tuning : 1</t>
+  </si>
+  <si>
     <t>pl/sql : 2</t>
   </si>
   <si>
-    <t>project : 1</t>
+    <t>apache : 1</t>
+  </si>
+  <si>
+    <t>tivoli : 1</t>
+  </si>
+  <si>
+    <t>cisco routers : 1</t>
+  </si>
+  <si>
+    <t>system analysis : 1</t>
+  </si>
+  <si>
+    <t>integration : 1</t>
   </si>
   <si>
     <t>databases : 2</t>
-  </si>
-  <si>
-    <t>analysis : 1</t>
-  </si>
-  <si>
-    <t>sql : 1</t>
-  </si>
-  <si>
-    <t>git : 1</t>
-  </si>
-  <si>
-    <t>27.77</t>
-  </si>
-  <si>
-    <t>regulations : 2</t>
   </si>
   <si>
     <t>20.0</t>
@@ -1071,7 +795,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K217"/>
+  <dimension ref="A1:K131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1139,55 +863,37 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>230</v>
+        <v>144</v>
       </c>
       <c r="G2" t="s">
-        <v>235</v>
-      </c>
-      <c r="H2" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="I2" t="s">
-        <v>237</v>
+        <v>146</v>
       </c>
       <c r="K2" t="s">
-        <v>238</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
-        <v>231</v>
-      </c>
-      <c r="H3" t="s">
-        <v>236</v>
-      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
-        <v>232</v>
-      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s">
-        <v>233</v>
-      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="E6" t="s">
         <v>18</v>
       </c>
-      <c r="F6" t="s">
-        <v>234</v>
-      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="E7" t="s">
@@ -1812,436 +1518,6 @@
     <row r="131" spans="5:5">
       <c r="E131" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="132" spans="5:5">
-      <c r="E132" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="133" spans="5:5">
-      <c r="E133" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="134" spans="5:5">
-      <c r="E134" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="135" spans="5:5">
-      <c r="E135" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="136" spans="5:5">
-      <c r="E136" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="137" spans="5:5">
-      <c r="E137" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="138" spans="5:5">
-      <c r="E138" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="139" spans="5:5">
-      <c r="E139" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="140" spans="5:5">
-      <c r="E140" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="141" spans="5:5">
-      <c r="E141" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="142" spans="5:5">
-      <c r="E142" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="143" spans="5:5">
-      <c r="E143" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="144" spans="5:5">
-      <c r="E144" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="145" spans="5:5">
-      <c r="E145" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="146" spans="5:5">
-      <c r="E146" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="147" spans="5:5">
-      <c r="E147" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="148" spans="5:5">
-      <c r="E148" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="149" spans="5:5">
-      <c r="E149" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="150" spans="5:5">
-      <c r="E150" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="151" spans="5:5">
-      <c r="E151" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="152" spans="5:5">
-      <c r="E152" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="153" spans="5:5">
-      <c r="E153" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="154" spans="5:5">
-      <c r="E154" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="155" spans="5:5">
-      <c r="E155" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="156" spans="5:5">
-      <c r="E156" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="157" spans="5:5">
-      <c r="E157" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="158" spans="5:5">
-      <c r="E158" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="159" spans="5:5">
-      <c r="E159" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="160" spans="5:5">
-      <c r="E160" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="161" spans="5:5">
-      <c r="E161" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="162" spans="5:5">
-      <c r="E162" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="163" spans="5:5">
-      <c r="E163" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="164" spans="5:5">
-      <c r="E164" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="165" spans="5:5">
-      <c r="E165" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="166" spans="5:5">
-      <c r="E166" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="167" spans="5:5">
-      <c r="E167" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="168" spans="5:5">
-      <c r="E168" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="169" spans="5:5">
-      <c r="E169" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="170" spans="5:5">
-      <c r="E170" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="171" spans="5:5">
-      <c r="E171" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="172" spans="5:5">
-      <c r="E172" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="173" spans="5:5">
-      <c r="E173" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="174" spans="5:5">
-      <c r="E174" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="175" spans="5:5">
-      <c r="E175" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="176" spans="5:5">
-      <c r="E176" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="177" spans="5:5">
-      <c r="E177" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="178" spans="5:5">
-      <c r="E178" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="179" spans="5:5">
-      <c r="E179" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="180" spans="5:5">
-      <c r="E180" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="181" spans="5:5">
-      <c r="E181" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="182" spans="5:5">
-      <c r="E182" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="183" spans="5:5">
-      <c r="E183" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="184" spans="5:5">
-      <c r="E184" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="185" spans="5:5">
-      <c r="E185" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="186" spans="5:5">
-      <c r="E186" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="187" spans="5:5">
-      <c r="E187" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="188" spans="5:5">
-      <c r="E188" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="189" spans="5:5">
-      <c r="E189" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="190" spans="5:5">
-      <c r="E190" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="191" spans="5:5">
-      <c r="E191" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="192" spans="5:5">
-      <c r="E192" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="193" spans="5:5">
-      <c r="E193" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="194" spans="5:5">
-      <c r="E194" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="195" spans="5:5">
-      <c r="E195" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="196" spans="5:5">
-      <c r="E196" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="197" spans="5:5">
-      <c r="E197" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="198" spans="5:5">
-      <c r="E198" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="199" spans="5:5">
-      <c r="E199" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="200" spans="5:5">
-      <c r="E200" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="201" spans="5:5">
-      <c r="E201" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="202" spans="5:5">
-      <c r="E202" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="203" spans="5:5">
-      <c r="E203" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="204" spans="5:5">
-      <c r="E204" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="205" spans="5:5">
-      <c r="E205" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="206" spans="5:5">
-      <c r="E206" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="207" spans="5:5">
-      <c r="E207" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="208" spans="5:5">
-      <c r="E208" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="209" spans="5:5">
-      <c r="E209" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="210" spans="5:5">
-      <c r="E210" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="211" spans="5:5">
-      <c r="E211" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="212" spans="5:5">
-      <c r="E212" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="213" spans="5:5">
-      <c r="E213" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="214" spans="5:5">
-      <c r="E214" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="215" spans="5:5">
-      <c r="E215" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="216" spans="5:5">
-      <c r="E216" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="217" spans="5:5">
-      <c r="E217" t="s">
-        <v>229</v>
       </c>
     </row>
   </sheetData>
